--- a/l10n_fi_scouts/builder/tilikartta.xlsx
+++ b/l10n_fi_scouts/builder/tilikartta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b424a652e0c54540/Partio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P\odoo\extras\git_l10n_fi_scouts\l10n_fi_scouts\builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="161">
   <si>
     <t>V A S T A A V A A</t>
   </si>
@@ -252,9 +252,6 @@
     <t xml:space="preserve"> 357 Tulot asusteista</t>
   </si>
   <si>
-    <t>Varainhankinnan tulot</t>
-  </si>
-  <si>
     <t>Rahoitustulot</t>
   </si>
   <si>
@@ -279,24 +276,6 @@
     <t>Kokoustoiminnan menot</t>
   </si>
   <si>
-    <t xml:space="preserve"> 400 Menot lpk:n kokouksista</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 401 Menot sudenpentujen kokouksista</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 402 Menot seikkailijoiden kokouksista</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 403 Menot tarpojien kokouksista</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 404 Menot samoajien kokouksista</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 405 Menot vaeltajien kokouksista</t>
-  </si>
-  <si>
     <t>Retkeilyn menot</t>
   </si>
   <si>
@@ -354,15 +333,9 @@
     <t>Yleismenot</t>
   </si>
   <si>
-    <t xml:space="preserve"> 450 Menot toimistotarvikkeista</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 451 Kulukorvaukset</t>
   </si>
   <si>
-    <t xml:space="preserve"> 452 Menot kolosta</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 453 Menot huivimerkeistä</t>
   </si>
   <si>
@@ -372,18 +345,9 @@
     <t xml:space="preserve"> 455 Menot muistamisista</t>
   </si>
   <si>
-    <t xml:space="preserve"> 456 Menot toimintatarvikkeista</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 457 Menot asusteista</t>
   </si>
   <si>
-    <t>Varainhankinnan menot</t>
-  </si>
-  <si>
-    <t>Rahoitusmenot</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 600 Pankin palvelumaksut</t>
   </si>
   <si>
@@ -399,24 +363,12 @@
     <t xml:space="preserve"> 800 Poistot käyttöomaisuudesta</t>
   </si>
   <si>
-    <t xml:space="preserve"> 550 Joulukalenterimyynti</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 559 Tulot muista varainhankintatoimista</t>
   </si>
   <si>
-    <t xml:space="preserve"> 551 Tulot tempauksista</t>
-  </si>
-  <si>
     <t>data_account_type_expenses</t>
   </si>
   <si>
-    <t xml:space="preserve"> 500 Menot joulukalenterimyynneistä</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 501 Menot tempauksista</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 509 Menot muista varainhankintatoimista</t>
   </si>
   <si>
@@ -469,13 +421,100 @@
   </si>
   <si>
     <t>data_account_type_equity</t>
+  </si>
+  <si>
+    <t>Hallintokulut ja pankkikulut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 400 Kokouskulut - lippukunnan yhteiset</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 401 Viikkokokousten kulut  ja tarvikkeet - sudenpennut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 402 Viikkokokousten kulut  ja tarvikkeet - seikkailijat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 403 Viikkokokousten kulut ja tarvikkeet - tarpojat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 404 Viikkokokousten kulut ja tarvikkeet - samoajat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 405 Viikkokokousten kulut ja tarvikkeet - vaeltajat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 450 Toimistotarvikkeet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 452 Kolo ja kokoontumistilan menot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 456 Puhelin ja nettikulut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 461 Suoritusmerkit ja suorituskirjat  -sudenpennut</t>
+  </si>
+  <si>
+    <t>462 Suoritusmerkit  ja suoritusmateriaali -  seikkailijat</t>
+  </si>
+  <si>
+    <t>463 Suoritusmerkit ja suoritusmateriaali - tarpojat</t>
+  </si>
+  <si>
+    <t>464 Suoritusmerkit ja suoritusmateriaali - samoajat</t>
+  </si>
+  <si>
+    <t>465 Suoritusmerkit ja suoritusmateriaali - vaeltajat</t>
+  </si>
+  <si>
+    <t>Suoritusmerkit ja suorittamisen materiaalit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 555 Joulukalenterimyynti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 556 Tulot tempauksista</t>
+  </si>
+  <si>
+    <t>550 Jäsenmaksut</t>
+  </si>
+  <si>
+    <t>551 Liittymismaksut</t>
+  </si>
+  <si>
+    <t>552 Kannatusjäsenmaksut</t>
+  </si>
+  <si>
+    <t>553 Lahjoitukset</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 505 Menot joulukalenterimyynneistä</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 506 Menot tempauksista</t>
+  </si>
+  <si>
+    <t>Varainhankinta- ja jäsenmaksumenot</t>
+  </si>
+  <si>
+    <t>Varainhankinta- ja jäsenmaksutulot</t>
+  </si>
+  <si>
+    <t>500 Sidosryhmien (SP, Päpa etc) palvelumaksut</t>
+  </si>
+  <si>
+    <t>206 Kolovaraus</t>
+  </si>
+  <si>
+    <t>data_account_type_noncurrent_liabilities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +549,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -537,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -551,6 +598,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -1340,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1353,16 +1402,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1376,7 +1425,7 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1384,15 +1433,15 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1403,35 +1452,35 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1440,7 +1489,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1448,15 +1497,15 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1464,537 +1513,631 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" t="s">
-        <v>144</v>
+      <c r="A34" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>126</v>
+      <c r="A35" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>125</v>
+      <c r="A36" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>76</v>
+      <c r="A37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>77</v>
+      <c r="A38" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>144</v>
+      <c r="A42" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>83</v>
+      <c r="A44" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" t="s">
-        <v>127</v>
+      <c r="A48" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" t="s">
-        <v>127</v>
+      <c r="A49" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" t="s">
-        <v>127</v>
+      <c r="A56" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>103</v>
-      </c>
-      <c r="B64" t="s">
-        <v>127</v>
+      <c r="A64" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>93</v>
+      </c>
+      <c r="B66" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" t="s">
-        <v>127</v>
+      <c r="A67" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" t="s">
-        <v>127</v>
+      <c r="A71" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>113</v>
-      </c>
-      <c r="B74" t="s">
-        <v>127</v>
+      <c r="A74" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+      <c r="B78" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>106</v>
+      </c>
+      <c r="B82" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>119</v>
-      </c>
-      <c r="B83" t="s">
-        <v>127</v>
+      <c r="A83" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>142</v>
+      </c>
+      <c r="B84" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>144</v>
+      </c>
+      <c r="B86" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>